--- a/data/cpd_acv.xlsx
+++ b/data/cpd_acv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.9091498888954996</v>
+        <v>0.919474060538651</v>
       </c>
       <c r="D2">
-        <v>0.9065749547950841</v>
+        <v>0.01328949057939267</v>
       </c>
       <c r="E2">
-        <v>0.8943560465940456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.9075959323111146</v>
+      </c>
+      <c r="F2">
+        <v>0.008079828030440557</v>
+      </c>
+      <c r="G2">
+        <v>0.9010937210349302</v>
+      </c>
+      <c r="H2">
+        <v>0.01176614842018948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.9048062073657498</v>
+        <v>0.9152424459098011</v>
       </c>
       <c r="D3">
-        <v>0.8901744301852432</v>
+        <v>0.01162965171394434</v>
       </c>
       <c r="E3">
-        <v>0.897411614365204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.8966950027806467</v>
+      </c>
+      <c r="F3">
+        <v>0.008827731746952868</v>
+      </c>
+      <c r="G3">
+        <v>0.8981608008262494</v>
+      </c>
+      <c r="H3">
+        <v>0.00696174371224215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.8601049478365017</v>
+        <v>0.8557011202033845</v>
       </c>
       <c r="D4">
-        <v>0.8781146122465874</v>
+        <v>0.02143006205360275</v>
       </c>
       <c r="E4">
-        <v>0.861394225670184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.8731039961865417</v>
+      </c>
+      <c r="F4">
+        <v>0.01157947846223474</v>
+      </c>
+      <c r="G4">
+        <v>0.865302825666693</v>
+      </c>
+      <c r="H4">
+        <v>0.008892490079090905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.8966062037441829</v>
+        <v>0.8914898969836604</v>
       </c>
       <c r="D5">
-        <v>0.9187964498296569</v>
+        <v>0.01234489118367503</v>
       </c>
       <c r="E5">
-        <v>0.8728096633753522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.913453563200127</v>
+      </c>
+      <c r="F5">
+        <v>0.008843763376340269</v>
+      </c>
+      <c r="G5">
+        <v>0.8771761870713168</v>
+      </c>
+      <c r="H5">
+        <v>0.009229852154048738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.8737728708419885</v>
+        <v>0.8719694923333599</v>
       </c>
       <c r="D6">
-        <v>0.8818111973676382</v>
+        <v>0.01193368837358992</v>
       </c>
       <c r="E6">
-        <v>0.8766690896674108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.8861213950901723</v>
+      </c>
+      <c r="F6">
+        <v>0.008990461555954682</v>
+      </c>
+      <c r="G6">
+        <v>0.881408331347157</v>
+      </c>
+      <c r="H6">
+        <v>0.01063166626720436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8385593406678687</v>
+        <v>0.9181724530600356</v>
       </c>
       <c r="D7">
-        <v>0.8385607634263128</v>
+        <v>0.01407736232293906</v>
       </c>
       <c r="E7">
-        <v>0.8174947551950085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.9160541299224066</v>
+      </c>
+      <c r="F7">
+        <v>0.006172636980767915</v>
+      </c>
+      <c r="G7">
+        <v>0.9072728476470431</v>
+      </c>
+      <c r="H7">
+        <v>0.01118686490510426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.8162098749783352</v>
+        <v>0.9176833240645109</v>
       </c>
       <c r="D8">
-        <v>0.8684658525039255</v>
+        <v>0.01197651965327645</v>
       </c>
       <c r="E8">
-        <v>0.8586603306490623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.9122036458831838</v>
-      </c>
-      <c r="D9">
-        <v>0.9250675810260933</v>
-      </c>
-      <c r="E9">
-        <v>0.9099537474163999</v>
+        <v>0.9253274542517411</v>
+      </c>
+      <c r="F8">
+        <v>0.005447372876703471</v>
+      </c>
+      <c r="G8">
+        <v>0.9128028918725668</v>
+      </c>
+      <c r="H8">
+        <v>0.01064670719590253</v>
       </c>
     </row>
   </sheetData>
